--- a/spliced/falling/2023-03-25_18-03-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/accelerometer_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-4.636096000671387</v>
+        <v>-3.823432922363281</v>
       </c>
       <c r="B2" t="n">
-        <v>5.381560325622559</v>
+        <v>5.642979621887207</v>
       </c>
       <c r="C2" t="n">
-        <v>5.073278903961182</v>
+        <v>4.475735664367676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-5.365009784698486</v>
+        <v>-4.128349304199219</v>
       </c>
       <c r="B3" t="n">
-        <v>4.192014694213867</v>
+        <v>5.92755126953125</v>
       </c>
       <c r="C3" t="n">
-        <v>5.306471347808838</v>
+        <v>5.054780960083008</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-6.076753616333008</v>
+        <v>-4.636096000671387</v>
       </c>
       <c r="B4" t="n">
-        <v>2.580186367034912</v>
+        <v>5.381560325622559</v>
       </c>
       <c r="C4" t="n">
-        <v>6.088143825531006</v>
+        <v>5.073278903961182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-6.769103527069092</v>
+        <v>-5.365009784698486</v>
       </c>
       <c r="B5" t="n">
-        <v>3.8761305809021</v>
+        <v>4.192014694213867</v>
       </c>
       <c r="C5" t="n">
-        <v>3.666451930999756</v>
+        <v>5.306471347808838</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.217415809631348</v>
+        <v>-6.076753616333008</v>
       </c>
       <c r="B6" t="n">
-        <v>5.673132419586182</v>
+        <v>2.580186367034912</v>
       </c>
       <c r="C6" t="n">
-        <v>3.341332912445068</v>
+        <v>6.088143825531006</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-4.648830413818359</v>
+        <v>-6.769103527069092</v>
       </c>
       <c r="B7" t="n">
-        <v>2.288045167922974</v>
+        <v>3.8761305809021</v>
       </c>
       <c r="C7" t="n">
-        <v>2.572498321533203</v>
+        <v>3.666451930999756</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>62.12903594970703</v>
+        <v>-5.217415809631348</v>
       </c>
       <c r="B8" t="n">
-        <v>9.40150260925293</v>
+        <v>5.673132419586182</v>
       </c>
       <c r="C8" t="n">
-        <v>-14.63701248168945</v>
+        <v>3.341332912445068</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-6.846994400024414</v>
+        <v>-4.648830413818359</v>
       </c>
       <c r="B9" t="n">
-        <v>9.073053359985352</v>
+        <v>2.288045167922974</v>
       </c>
       <c r="C9" t="n">
-        <v>3.893637657165527</v>
+        <v>2.572498321533203</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.824018478393555</v>
+        <v>62.12903594970703</v>
       </c>
       <c r="B10" t="n">
-        <v>1.011744022369385</v>
+        <v>9.40150260925293</v>
       </c>
       <c r="C10" t="n">
-        <v>6.095863819122314</v>
+        <v>-14.63701248168945</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>15.44786834716797</v>
+        <v>-6.846994400024414</v>
       </c>
       <c r="B11" t="n">
-        <v>3.326952695846558</v>
+        <v>9.073053359985352</v>
       </c>
       <c r="C11" t="n">
-        <v>7.409719944000244</v>
+        <v>3.893637657165527</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.8648982048034668</v>
+        <v>4.824018478393555</v>
       </c>
       <c r="B12" t="n">
-        <v>5.278839111328125</v>
+        <v>1.011744022369385</v>
       </c>
       <c r="C12" t="n">
-        <v>5.748791694641113</v>
+        <v>6.095863819122314</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1.2574462890625</v>
+        <v>15.44786834716797</v>
       </c>
       <c r="B13" t="n">
-        <v>1.225612640380859</v>
+        <v>3.326952695846558</v>
       </c>
       <c r="C13" t="n">
-        <v>7.33539867401123</v>
+        <v>7.409719944000244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1.297415733337402</v>
+        <v>-0.8648982048034668</v>
       </c>
       <c r="B14" t="n">
-        <v>4.380810260772705</v>
+        <v>5.278839111328125</v>
       </c>
       <c r="C14" t="n">
-        <v>6.710616588592529</v>
+        <v>5.748791694641113</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.824479103088379</v>
+        <v>1.2574462890625</v>
       </c>
       <c r="B15" t="n">
-        <v>3.505787849426269</v>
+        <v>1.225612640380859</v>
       </c>
       <c r="C15" t="n">
-        <v>5.917765617370605</v>
+        <v>7.33539867401123</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2.601564407348633</v>
+        <v>1.297415733337402</v>
       </c>
       <c r="B16" t="n">
-        <v>5.296027660369873</v>
+        <v>4.380810260772705</v>
       </c>
       <c r="C16" t="n">
-        <v>4.190939426422119</v>
+        <v>6.710616588592529</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.9737215042114258</v>
+        <v>-4.824479103088379</v>
       </c>
       <c r="B17" t="n">
-        <v>3.227108478546143</v>
+        <v>3.505787849426269</v>
       </c>
       <c r="C17" t="n">
-        <v>7.653890609741211</v>
+        <v>5.917765617370605</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.5169296264648438</v>
+        <v>2.601564407348633</v>
       </c>
       <c r="B18" t="n">
-        <v>3.862967014312744</v>
+        <v>5.296027660369873</v>
       </c>
       <c r="C18" t="n">
-        <v>6.639832496643066</v>
+        <v>4.190939426422119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.4491424560546875</v>
+        <v>0.9737215042114258</v>
       </c>
       <c r="B19" t="n">
-        <v>3.653162002563477</v>
+        <v>3.227108478546143</v>
       </c>
       <c r="C19" t="n">
-        <v>6.346769332885742</v>
+        <v>7.653890609741211</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.2319450378417968</v>
+        <v>0.5169296264648438</v>
       </c>
       <c r="B20" t="n">
-        <v>3.570143699645996</v>
+        <v>3.862967014312744</v>
       </c>
       <c r="C20" t="n">
-        <v>6.152892589569092</v>
+        <v>6.639832496643066</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.591557502746582</v>
+        <v>-0.4491424560546875</v>
       </c>
       <c r="B21" t="n">
-        <v>3.706366539001465</v>
+        <v>3.653162002563477</v>
       </c>
       <c r="C21" t="n">
-        <v>6.142139434814453</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>-0.2686710357666015</v>
-      </c>
-      <c r="B22" t="n">
-        <v>3.55421781539917</v>
-      </c>
-      <c r="C22" t="n">
-        <v>6.011789798736572</v>
+        <v>6.346769332885742</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-03-59/accelerometer_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-03-59/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-3.823432922363281</v>
+        <v>-4.391921520233154</v>
       </c>
       <c r="B2" t="n">
-        <v>5.642979621887207</v>
+        <v>5.980224609375</v>
       </c>
       <c r="C2" t="n">
-        <v>4.475735664367676</v>
+        <v>2.74719500541687</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.128349304199219</v>
+        <v>-4.076038837432861</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92755126953125</v>
+        <v>6.086456298828125</v>
       </c>
       <c r="C3" t="n">
-        <v>5.054780960083008</v>
+        <v>2.820330142974853</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-4.636096000671387</v>
+        <v>-3.987221717834473</v>
       </c>
       <c r="B4" t="n">
-        <v>5.381560325622559</v>
+        <v>6.00103759765625</v>
       </c>
       <c r="C4" t="n">
-        <v>5.073278903961182</v>
+        <v>2.755735635757446</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-5.365009784698486</v>
+        <v>-4.239626407623291</v>
       </c>
       <c r="B5" t="n">
-        <v>4.192014694213867</v>
+        <v>5.927947998046875</v>
       </c>
       <c r="C5" t="n">
-        <v>5.306471347808838</v>
+        <v>2.57724142074585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-6.076753616333008</v>
+        <v>-4.282441139221191</v>
       </c>
       <c r="B6" t="n">
-        <v>2.580186367034912</v>
+        <v>6.027595043182373</v>
       </c>
       <c r="C6" t="n">
-        <v>6.088143825531006</v>
+        <v>2.64313268661499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-6.769103527069092</v>
+        <v>-4.193782329559326</v>
       </c>
       <c r="B7" t="n">
-        <v>3.8761305809021</v>
+        <v>5.953823566436768</v>
       </c>
       <c r="C7" t="n">
-        <v>3.666451930999756</v>
+        <v>2.714946508407593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.217415809631348</v>
+        <v>-4.003739356994629</v>
       </c>
       <c r="B8" t="n">
-        <v>5.673132419586182</v>
+        <v>5.964433670043945</v>
       </c>
       <c r="C8" t="n">
-        <v>3.341332912445068</v>
+        <v>2.773677349090576</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.648830413818359</v>
+        <v>-4.139037609100342</v>
       </c>
       <c r="B9" t="n">
-        <v>2.288045167922974</v>
+        <v>5.919798851013184</v>
       </c>
       <c r="C9" t="n">
-        <v>2.572498321533203</v>
+        <v>3.334548950195312</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62.12903594970703</v>
+        <v>-4.075920104980469</v>
       </c>
       <c r="B10" t="n">
-        <v>9.40150260925293</v>
+        <v>5.56472110748291</v>
       </c>
       <c r="C10" t="n">
-        <v>-14.63701248168945</v>
+        <v>3.763194084167481</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-6.846994400024414</v>
+        <v>-3.823432922363281</v>
       </c>
       <c r="B11" t="n">
-        <v>9.073053359985352</v>
+        <v>5.642979621887207</v>
       </c>
       <c r="C11" t="n">
-        <v>3.893637657165527</v>
+        <v>4.475735664367676</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.824018478393555</v>
+        <v>-4.128349304199219</v>
       </c>
       <c r="B12" t="n">
-        <v>1.011744022369385</v>
+        <v>5.92755126953125</v>
       </c>
       <c r="C12" t="n">
-        <v>6.095863819122314</v>
+        <v>5.054780960083008</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>15.44786834716797</v>
+        <v>-4.636096000671387</v>
       </c>
       <c r="B13" t="n">
-        <v>3.326952695846558</v>
+        <v>5.381560325622559</v>
       </c>
       <c r="C13" t="n">
-        <v>7.409719944000244</v>
+        <v>5.073278903961182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.8648982048034668</v>
+        <v>-5.365009784698486</v>
       </c>
       <c r="B14" t="n">
-        <v>5.278839111328125</v>
+        <v>4.192014694213867</v>
       </c>
       <c r="C14" t="n">
-        <v>5.748791694641113</v>
+        <v>5.306471347808838</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1.2574462890625</v>
+        <v>-6.076753616333008</v>
       </c>
       <c r="B15" t="n">
-        <v>1.225612640380859</v>
+        <v>2.580186367034912</v>
       </c>
       <c r="C15" t="n">
-        <v>7.33539867401123</v>
+        <v>6.088143825531006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.297415733337402</v>
+        <v>-6.769103527069092</v>
       </c>
       <c r="B16" t="n">
-        <v>4.380810260772705</v>
+        <v>3.8761305809021</v>
       </c>
       <c r="C16" t="n">
-        <v>6.710616588592529</v>
+        <v>3.666451930999756</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-4.824479103088379</v>
+        <v>-5.217415809631348</v>
       </c>
       <c r="B17" t="n">
-        <v>3.505787849426269</v>
+        <v>5.673132419586182</v>
       </c>
       <c r="C17" t="n">
-        <v>5.917765617370605</v>
+        <v>3.341332912445068</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2.601564407348633</v>
+        <v>-4.648830413818359</v>
       </c>
       <c r="B18" t="n">
-        <v>5.296027660369873</v>
+        <v>2.288045167922974</v>
       </c>
       <c r="C18" t="n">
-        <v>4.190939426422119</v>
+        <v>2.572498321533203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9737215042114258</v>
+        <v>62.12903594970703</v>
       </c>
       <c r="B19" t="n">
-        <v>3.227108478546143</v>
+        <v>9.40150260925293</v>
       </c>
       <c r="C19" t="n">
-        <v>7.653890609741211</v>
+        <v>-14.63701248168945</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.5169296264648438</v>
+        <v>-6.846994400024414</v>
       </c>
       <c r="B20" t="n">
-        <v>3.862967014312744</v>
+        <v>9.073053359985352</v>
       </c>
       <c r="C20" t="n">
-        <v>6.639832496643066</v>
+        <v>3.893637657165527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>4.824018478393555</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1.011744022369385</v>
+      </c>
+      <c r="C21" t="n">
+        <v>6.095863819122314</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>15.44786834716797</v>
+      </c>
+      <c r="B22" t="n">
+        <v>3.326952695846558</v>
+      </c>
+      <c r="C22" t="n">
+        <v>7.409719944000244</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-0.8648982048034668</v>
+      </c>
+      <c r="B23" t="n">
+        <v>5.278839111328125</v>
+      </c>
+      <c r="C23" t="n">
+        <v>5.748791694641113</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1.2574462890625</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.225612640380859</v>
+      </c>
+      <c r="C24" t="n">
+        <v>7.33539867401123</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.297415733337402</v>
+      </c>
+      <c r="B25" t="n">
+        <v>4.380810260772705</v>
+      </c>
+      <c r="C25" t="n">
+        <v>6.710616588592529</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-4.824479103088379</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.505787849426269</v>
+      </c>
+      <c r="C26" t="n">
+        <v>5.917765617370605</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.601564407348633</v>
+      </c>
+      <c r="B27" t="n">
+        <v>5.296027660369873</v>
+      </c>
+      <c r="C27" t="n">
+        <v>4.190939426422119</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.9737215042114258</v>
+      </c>
+      <c r="B28" t="n">
+        <v>3.227108478546143</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.653890609741211</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.5169296264648438</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3.862967014312744</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6.639832496643066</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
         <v>-0.4491424560546875</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B30" t="n">
         <v>3.653162002563477</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C30" t="n">
         <v>6.346769332885742</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-0.2319450378417968</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3.570143699645996</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6.152892589569092</v>
       </c>
     </row>
   </sheetData>
